--- a/asv_system/config/param/param4.xlsx
+++ b/asv_system/config/param/param4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t xml:space="preserve">class</t>
   </si>
@@ -43,7 +43,13 @@
     <t xml:space="preserve">group</t>
   </si>
   <si>
-    <t xml:space="preserve">ROSACE</t>
+    <t xml:space="preserve">u_d_asv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATTRAPANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATTRAPE</t>
   </si>
 </sst>
 </file>
@@ -144,13 +150,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -174,13 +180,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>60</v>
@@ -197,13 +207,17 @@
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>90</v>
@@ -220,13 +234,17 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>120</v>
@@ -243,13 +261,17 @@
       <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>150</v>
@@ -266,13 +288,17 @@
       <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>180</v>
@@ -289,13 +315,17 @@
       <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>210</v>
@@ -312,13 +342,17 @@
       <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>240</v>
@@ -335,13 +369,17 @@
       <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>270</v>
@@ -358,13 +396,17 @@
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>300</v>
@@ -381,13 +423,17 @@
       <c r="G10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>330</v>
@@ -404,13 +450,17 @@
       <c r="G11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -427,13 +477,17 @@
       <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>30</v>
@@ -450,6 +504,334 @@
       <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
